--- a/APM files/141739658/141739658 IMPORT 11 EPCUserAccount-Import-Attach.xlsx
+++ b/APM files/141739658/141739658 IMPORT 11 EPCUserAccount-Import-Attach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141739658/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C613B-D181-7545-8AAB-6F6BA4D68ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37154EF-6544-E84D-8A77-2532E6C0F467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Account Email Address</t>
   </si>
   <si>
-    <t>Account First Name</t>
-  </si>
-  <si>
-    <t>Account Last Name</t>
-  </si>
-  <si>
     <t>Account Security Level</t>
   </si>
   <si>
@@ -68,39 +62,6 @@
     <t>attach</t>
   </si>
   <si>
-    <t>EQC_Hostaway</t>
-  </si>
-  <si>
-    <t>SYS_Hostaway</t>
-  </si>
-  <si>
-    <t>info@hostaway.com</t>
-  </si>
-  <si>
-    <t>support@hostaway.com</t>
-  </si>
-  <si>
-    <t>EQC</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Hostaway</t>
-  </si>
-  <si>
-    <t>Connectivity API Master</t>
-  </si>
-  <si>
-    <t>Connectivity Vendor</t>
-  </si>
-  <si>
-    <t>69045044</t>
-  </si>
-  <si>
-    <t>69045046</t>
-  </si>
-  <si>
     <t>118682879</t>
   </si>
   <si>
@@ -132,13 +93,28 @@
   </si>
   <si>
     <t>118682895</t>
+  </si>
+  <si>
+    <t>etc-MariaBarsala</t>
+  </si>
+  <si>
+    <t>maria.angeles@hellolanding.com</t>
+  </si>
+  <si>
+    <t>Hotelier Admin</t>
+  </si>
+  <si>
+    <t>etx-kellymaynard</t>
+  </si>
+  <si>
+    <t>kelly@barsala.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -156,6 +132,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF121617"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -184,25 +166,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -733,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,15 +718,13 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,655 +746,514 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>69575500</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3">
+        <v>69848200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3">
+        <v>69575500</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
